--- a/data/trans_dic/IP16B02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16B02-Habitat-trans_dic.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>89,78%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>92,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>89,03%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>87,85%</t>
+          <t>82,87%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>74,82%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>87,71%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>89,1%</t>
+          <t>87,19%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>82,44%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>88,35%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>72,65; 96,81</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>75,15; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71,96; 96,79</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>63,94; 100,0</t>
+          <t>33,2; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>59,82; 86,5</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>71,84; 96,9</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>78,01; 95,77</t>
+          <t>44,33; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>70,42; 90,49</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>76,47; 94,68</t>
+          <t>43,07; 100</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>90,96%</t>
+          <t>89,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>87,26%</t>
+          <t>92,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>89,03%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>85,17%</t>
+          <t>87,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>82,41%</t>
+          <t>74,82%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,48%</t>
+          <t>87,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>88,48%</t>
+          <t>89,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>84,76%</t>
+          <t>82,44%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>90,86%</t>
+          <t>88,35%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>73,01; 100,0</t>
+          <t>72,65; 96,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,7; 96,66</t>
+          <t>75,15; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>75,63; 100,0</t>
+          <t>71,96; 96,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>56,88; 100,0</t>
+          <t>63,94; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>64,39; 93,18</t>
+          <t>59,82; 86,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>69,32; 96,45</t>
+          <t>71,84; 96,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,82; 96,97</t>
+          <t>78,01; 95,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>72,68; 92,43</t>
+          <t>70,42; 90,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>77,44; 97,56</t>
+          <t>76,47; 94,68</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>83,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>91,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>82,87%</t>
+          <t>94,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>82,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>79,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>87,19%</t>
+          <t>87,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>82,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>85,68%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>64,97; 95,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,27; 93,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>72,07; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,2; 100,0</t>
+          <t>76,09; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>63,75; 100</t>
+          <t>65,03; 93,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>60,26; 94,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,33; 100,0</t>
+          <t>74,18; 95,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>63,75; 100</t>
+          <t>71,15; 91,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>73,1; 94,85</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>83,52%</t>
+          <t>90,96%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>82,76%</t>
+          <t>87,26%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>91,01%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94,92%</t>
+          <t>85,17%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>82,23%</t>
+          <t>82,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>79,98%</t>
+          <t>88,48%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>87,65%</t>
+          <t>88,48%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>82,51%</t>
+          <t>84,76%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>85,68%</t>
+          <t>90,86%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>64,97; 95,42</t>
+          <t>73,01; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>64,27; 93,61</t>
+          <t>66,7; 96,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>72,07; 100,0</t>
+          <t>75,63; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>76,09; 100,0</t>
+          <t>56,88; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>65,03; 93,38</t>
+          <t>64,39; 93,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>60,26; 94,65</t>
+          <t>69,32; 96,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>74,18; 95,32</t>
+          <t>73,82; 96,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>71,15; 91,33</t>
+          <t>72,68; 92,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>73,1; 94,85</t>
+          <t>77,44; 97,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16B02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16B02-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>61,48; 100,0</t>
+          <t>60,16; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,98; 95,99</t>
+          <t>69,12; 95,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>42,68; 100,0</t>
+          <t>45,03; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,35</t>
+          <t>0,0; 64,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,39; 94,95</t>
+          <t>58,46; 94,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,51; 91,1</t>
+          <t>38,38; 91,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>41,7; 84,31</t>
+          <t>38,16; 84,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>73,69; 93,3</t>
+          <t>70,87; 95,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,88; 90,38</t>
+          <t>51,49; 90,44</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>72,65; 96,81</t>
+          <t>75,57; 96,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>75,15; 100,0</t>
+          <t>74,21; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>71,96; 96,79</t>
+          <t>71,58; 96,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>63,94; 100,0</t>
+          <t>63,49; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>59,82; 86,5</t>
+          <t>58,37; 86,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,84; 96,9</t>
+          <t>71,08; 96,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>78,01; 95,77</t>
+          <t>77,88; 95,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>70,42; 90,49</t>
+          <t>71,41; 90,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>76,47; 94,68</t>
+          <t>78,4; 95,23</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>64,97; 95,42</t>
+          <t>65,15; 95,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64,27; 93,61</t>
+          <t>64,43; 93,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,07; 100,0</t>
+          <t>70,17; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>76,09; 100,0</t>
+          <t>76,62; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,03; 93,38</t>
+          <t>64,0; 93,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>60,26; 94,65</t>
+          <t>55,4; 94,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>74,18; 95,32</t>
+          <t>74,12; 95,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>71,15; 91,33</t>
+          <t>70,08; 90,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>73,1; 94,85</t>
+          <t>71,81; 94,63</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>73,01; 100,0</t>
+          <t>72,71; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>66,7; 96,66</t>
+          <t>65,49; 96,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>75,63; 100,0</t>
+          <t>69,58; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>56,88; 100,0</t>
+          <t>56,71; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>64,39; 93,18</t>
+          <t>63,47; 93,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>69,32; 96,45</t>
+          <t>71,6; 96,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>73,82; 96,97</t>
+          <t>73,55; 97,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>72,68; 92,43</t>
+          <t>73,66; 92,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>77,44; 97,56</t>
+          <t>78,96; 97,75</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>80,33; 94,24</t>
+          <t>80,91; 94,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>79,6; 92,79</t>
+          <t>80,61; 93,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>82,35; 96,15</t>
+          <t>82,27; 96,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>68,76; 88,59</t>
+          <t>67,94; 88,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>72,45; 87,43</t>
+          <t>73,27; 87,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>73,84; 90,06</t>
+          <t>74,04; 89,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>78,8; 90,46</t>
+          <t>78,47; 90,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>77,77; 88,87</t>
+          <t>78,0; 88,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>81,04; 91,57</t>
+          <t>80,39; 91,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16B02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16B02-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33,2; 100,0</t>
+          <t>34,0; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,33; 100,0</t>
+          <t>48,3; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>60,16; 100,0</t>
+          <t>62,05; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>69,12; 95,96</t>
+          <t>68,57; 95,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,03; 100,0</t>
+          <t>51,41; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,15</t>
+          <t>0,0; 64,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>58,46; 94,95</t>
+          <t>55,51; 94,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,38; 91,22</t>
+          <t>38,53; 91,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,16; 84,06</t>
+          <t>37,12; 84,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>70,87; 95,12</t>
+          <t>73,31; 93,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,49; 90,44</t>
+          <t>51,38; 90,04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>75,57; 96,83</t>
+          <t>72,32; 96,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74,21; 100,0</t>
+          <t>77,86; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>71,58; 96,79</t>
+          <t>70,99; 96,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>63,49; 100,0</t>
+          <t>63,31; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,37; 86,6</t>
+          <t>58,46; 86,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,08; 96,88</t>
+          <t>71,98; 96,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>77,88; 95,74</t>
+          <t>78,31; 95,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>71,41; 90,46</t>
+          <t>71,34; 90,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>78,4; 95,23</t>
+          <t>77,6; 95,04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>65,15; 95,46</t>
+          <t>62,04; 95,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64,43; 93,52</t>
+          <t>64,77; 93,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,17; 100,0</t>
+          <t>72,3; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>76,62; 100,0</t>
+          <t>74,84; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,0; 93,39</t>
+          <t>64,34; 93,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,4; 94,33</t>
+          <t>58,58; 95,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>74,12; 95,3</t>
+          <t>75,32; 96,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>70,08; 90,46</t>
+          <t>71,21; 91,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71,81; 94,63</t>
+          <t>70,46; 93,76</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>72,71; 100,0</t>
+          <t>69,98; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>65,49; 96,53</t>
+          <t>67,51; 96,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>69,58; 100,0</t>
+          <t>76,21; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>56,71; 100,0</t>
+          <t>56,96; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>63,47; 93,15</t>
+          <t>64,99; 93,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>71,6; 96,54</t>
+          <t>69,9; 96,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>73,55; 97,0</t>
+          <t>74,94; 96,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>73,66; 92,65</t>
+          <t>73,16; 92,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>78,96; 97,75</t>
+          <t>77,88; 97,73</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>80,91; 94,39</t>
+          <t>81,55; 94,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>80,61; 93,52</t>
+          <t>79,83; 92,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>82,27; 96,21</t>
+          <t>83,18; 96,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>67,94; 88,63</t>
+          <t>68,96; 89,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>73,27; 87,76</t>
+          <t>73,18; 87,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>74,04; 89,92</t>
+          <t>74,32; 90,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>78,47; 90,15</t>
+          <t>78,69; 90,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>78,0; 88,07</t>
+          <t>78,47; 88,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>80,39; 91,24</t>
+          <t>81,02; 91,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16B02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16B02-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>53,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>71,21%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>82,87%</t>
+          <t>92,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>87,51%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>90,17%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>87,19%</t>
+          <t>71,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>87,32%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>78,26%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>24,19; 77,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>67,51; 96,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>40,19; 91,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>34,0; 100,0</t>
+          <t>61,12; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>63,75; 100</t>
+          <t>66,98; 95,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>57,76; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>48,3; 100,0</t>
+          <t>53,64; 86,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>63,75; 100</t>
+          <t>75,85; 94,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>55,43; 91,53</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>90,68%</t>
+          <t>87,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>87,51%</t>
+          <t>74,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88,42%</t>
+          <t>87,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>89,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>83,6%</t>
+          <t>92,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>67,75%</t>
+          <t>89,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>63,48%</t>
+          <t>89,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>85,87%</t>
+          <t>82,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>75,2%</t>
+          <t>88,35%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>62,05; 100,0</t>
+          <t>63,94; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>68,57; 95,98</t>
+          <t>59,82; 86,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,41; 100,0</t>
+          <t>71,84; 96,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,01</t>
+          <t>72,65; 96,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>55,51; 94,91</t>
+          <t>75,15; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,53; 91,42</t>
+          <t>71,96; 96,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,12; 84,04</t>
+          <t>78,01; 95,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>73,31; 93,3</t>
+          <t>70,42; 90,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,38; 90,04</t>
+          <t>76,47; 94,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>89,78%</t>
+          <t>94,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>92,79%</t>
+          <t>82,23%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>89,03%</t>
+          <t>79,98%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>87,85%</t>
+          <t>83,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>74,82%</t>
+          <t>82,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,71%</t>
+          <t>91,01%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>89,1%</t>
+          <t>87,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>82,44%</t>
+          <t>82,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>88,35%</t>
+          <t>85,68%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>72,32; 96,83</t>
+          <t>76,09; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,86; 100,0</t>
+          <t>65,03; 93,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>70,99; 96,79</t>
+          <t>60,26; 94,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>63,31; 100,0</t>
+          <t>64,97; 95,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,46; 86,62</t>
+          <t>64,27; 93,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,98; 96,99</t>
+          <t>72,07; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>78,31; 95,76</t>
+          <t>74,18; 95,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>71,34; 90,65</t>
+          <t>71,15; 91,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>77,6; 95,04</t>
+          <t>73,1; 94,85</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>83,52%</t>
+          <t>85,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>82,76%</t>
+          <t>82,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>91,01%</t>
+          <t>88,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>94,92%</t>
+          <t>90,96%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>82,23%</t>
+          <t>87,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>79,98%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>87,65%</t>
+          <t>88,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>82,51%</t>
+          <t>84,76%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>85,68%</t>
+          <t>90,86%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>62,04; 95,38</t>
+          <t>56,88; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64,77; 93,45</t>
+          <t>64,39; 93,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,3; 100,0</t>
+          <t>69,32; 96,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>74,84; 100,0</t>
+          <t>73,01; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,34; 93,34</t>
+          <t>66,7; 96,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,58; 95,01</t>
+          <t>75,63; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>75,32; 96,17</t>
+          <t>73,82; 96,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>71,21; 91,31</t>
+          <t>72,68; 92,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>70,46; 93,76</t>
+          <t>77,44; 97,56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>90,96%</t>
+          <t>80,34%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>87,26%</t>
+          <t>80,9%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>83,28%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>85,17%</t>
+          <t>88,8%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>82,41%</t>
+          <t>87,48%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>88,48%</t>
+          <t>91,01%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>88,48%</t>
+          <t>85,34%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>84,76%</t>
+          <t>84,11%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>90,86%</t>
+          <t>86,8%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>69,98; 100,0</t>
+          <t>68,76; 88,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>67,51; 96,63</t>
+          <t>72,45; 87,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,21; 100,0</t>
+          <t>73,84; 90,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>56,96; 100,0</t>
+          <t>80,33; 94,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>64,99; 93,04</t>
+          <t>79,6; 92,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>69,9; 96,4</t>
+          <t>82,35; 96,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>74,94; 96,9</t>
+          <t>78,8; 90,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>73,16; 92,72</t>
+          <t>77,77; 88,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>77,88; 97,73</t>
+          <t>81,04; 91,57</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>88,8%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>87,48%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>91,01%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>80,34%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>80,9%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>83,28%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>85,34%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>84,11%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>86,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>81,55; 94,59</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>79,83; 92,88</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>83,18; 96,07</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>68,96; 89,68</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>73,18; 87,11</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>74,32; 90,14</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>78,69; 90,51</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>78,47; 88,34</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>81,02; 91,44</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
